--- a/ncp-gop-transect-summer-2019/ncp-transect-en644.xlsx
+++ b/ncp-gop-transect-summer-2019/ncp-transect-en644.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-summer-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEDC93-13C2-41E6-AE27-3307E7CF9EC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="1464" windowWidth="24636" windowHeight="13584"/>
+    <workbookView xWindow="876" yWindow="1464" windowWidth="24636" windowHeight="13584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>attributeName</t>
   </si>
@@ -62,9 +57,6 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
     <t>degree</t>
   </si>
   <si>
@@ -117,18 +109,6 @@
   </si>
   <si>
     <t>meter</t>
-  </si>
-  <si>
-    <t>biosat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent biological saturation, the oxygen-argon ratio divided by the equilibrium value of that ratio </t>
-  </si>
-  <si>
-    <t>O2_Ar_ratio</t>
-  </si>
-  <si>
-    <t>Oxygen-argon ratio of EIMS sample from underway corrected for air values</t>
   </si>
   <si>
     <t>k</t>
@@ -143,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -491,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -530,21 +510,21 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -555,124 +535,84 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
